--- a/xlsx/country_comparison/field_injustice_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_keyword_positive.xlsx
@@ -681,7 +681,7 @@
         <v>0.0531457376078439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0470199483957261</v>
+        <v>0.047019948395726</v>
       </c>
       <c r="M4" t="n">
         <v>0.127442364712324</v>
@@ -707,7 +707,7 @@
         <v>0.0829407961560835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0216086232144814</v>
+        <v>0.0216086232144815</v>
       </c>
       <c r="H5" t="n">
         <v>0.0591104680879328</v>
@@ -742,7 +742,7 @@
         <v>0.0300760131308032</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0283310762617525</v>
+        <v>0.0283310762617526</v>
       </c>
       <c r="F6" t="n">
         <v>0.0151941660966291</v>
@@ -848,7 +848,7 @@
         <v>0.0638014306529636</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0380766288598763</v>
+        <v>0.0380766288598764</v>
       </c>
     </row>
     <row r="9">
@@ -1020,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0391364656695974</v>
+        <v>0.0391364656695975</v>
       </c>
       <c r="C13" t="n">
         <v>0.0349991381231839</v>
@@ -1061,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0373650528180405</v>
+        <v>0.0373650528180406</v>
       </c>
       <c r="C14" t="n">
         <v>0.0119038161402332</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0160221572214872</v>
+        <v>0.0160221572214873</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0.0057624727721117</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00913314705482029</v>
+        <v>0.0091331470548203</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>

--- a/xlsx/country_comparison/field_injustice_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_keyword_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,18 +47,21 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
@@ -68,54 +71,54 @@
     <t xml:space="preserve">Government; president</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War; peace</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
-    <t xml:space="preserve">War; peace</t>
+    <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
-    <t xml:space="preserve">Family; children; childcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
-  </si>
-  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trump</t>
   </si>
   <si>
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
-    <t xml:space="preserve">Health; healthcare system</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
+    <t xml:space="preserve">Wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">Politics</t>
   </si>
   <si>
-    <t xml:space="preserve">Wage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Car</t>
   </si>
   <si>
@@ -128,28 +131,34 @@
     <t xml:space="preserve">Economy</t>
   </si>
   <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal welfare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Religion; sin; God</t>
   </si>
   <si>
+    <t xml:space="preserve">Hunger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time; more free time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
-    <t xml:space="preserve">Hunger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time; more free time</t>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
     <t xml:space="preserve">Abortion</t>
   </si>
   <si>
-    <t xml:space="preserve">Relationships; love; emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corruption; criticism of the government</t>
+    <t xml:space="preserve">Millionaire; billionaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youth</t>
   </si>
   <si>
     <t xml:space="preserve">Holiday; travel</t>
@@ -158,12 +167,6 @@
     <t xml:space="preserve">Inflation; cost of living</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaire; billionaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Palestine</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t xml:space="preserve">Stability</t>
   </si>
   <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mental health</t>
   </si>
   <si>
@@ -189,9 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stock; investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
 </sst>
 </file>
@@ -563,889 +566,955 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116327099047595</v>
+        <v>0.115031317095886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.183436187298691</v>
+        <v>0.118097517677437</v>
       </c>
       <c r="D2" t="n">
-        <v>0.173150412679757</v>
+        <v>0.103546442349651</v>
       </c>
       <c r="E2" t="n">
-        <v>0.204615079762552</v>
+        <v>0.183560113068273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.201250563454135</v>
+        <v>0.0780247319916329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.243149454864297</v>
+        <v>0.119004999900804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.185088809113933</v>
+        <v>0.0893784975706051</v>
       </c>
       <c r="I2" t="n">
-        <v>0.125327847441688</v>
+        <v>0.097442589627808</v>
       </c>
       <c r="J2" t="n">
-        <v>0.117831255896542</v>
+        <v>0.204094671577101</v>
       </c>
       <c r="K2" t="n">
-        <v>0.107577781365996</v>
+        <v>0.220198044095473</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0849932255556717</v>
+        <v>0.111495248327082</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0490527282336231</v>
+        <v>0.0809433993612329</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0722174668807583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115663693449219</v>
+        <v>0.112780309479869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118097517677437</v>
+        <v>0.183436187298691</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100375277996093</v>
+        <v>0.172895526897134</v>
       </c>
       <c r="E3" t="n">
-        <v>0.181828998195485</v>
+        <v>0.211195553481271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0855718961752823</v>
+        <v>0.213170399246437</v>
       </c>
       <c r="G3" t="n">
-        <v>0.105538922451696</v>
+        <v>0.248472713770186</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0918697813159451</v>
+        <v>0.189190317763666</v>
       </c>
       <c r="I3" t="n">
-        <v>0.104275137071077</v>
+        <v>0.116099481188847</v>
       </c>
       <c r="J3" t="n">
-        <v>0.19617585166137</v>
+        <v>0.119401418676218</v>
       </c>
       <c r="K3" t="n">
-        <v>0.222153608597665</v>
+        <v>0.106895698757531</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0770980743970966</v>
+        <v>0.0946645684983842</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0724560383609644</v>
+        <v>0.095058802853433</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0498454975241789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0956965005431745</v>
+        <v>0.0897405322193978</v>
       </c>
       <c r="C4" t="n">
         <v>0.0865269471618031</v>
       </c>
       <c r="D4" t="n">
-        <v>0.071974018167292</v>
+        <v>0.0730370766824782</v>
       </c>
       <c r="E4" t="n">
-        <v>0.118590968499718</v>
+        <v>0.119977324103338</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0563824146232881</v>
+        <v>0.0523845354753641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0873998164713974</v>
+        <v>0.0895954355574541</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0590347013633591</v>
+        <v>0.058271896637079</v>
       </c>
       <c r="I4" t="n">
-        <v>0.117022042550302</v>
+        <v>0.120503790005575</v>
       </c>
       <c r="J4" t="n">
-        <v>0.036906909222438</v>
+        <v>0.0370287969671937</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0531457376078439</v>
+        <v>0.0524608663046102</v>
       </c>
       <c r="L4" t="n">
-        <v>0.047019948395726</v>
+        <v>0.0545900914227383</v>
       </c>
       <c r="M4" t="n">
-        <v>0.127442364712324</v>
+        <v>0.0427392198200348</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.126302545397418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0709091809230827</v>
+        <v>0.0624455709260839</v>
       </c>
       <c r="C5" t="n">
         <v>0.0561722807795944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0660987807206381</v>
+        <v>0.0658866815911859</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0301654304582948</v>
+        <v>0.0358219004870486</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0829407961560835</v>
+        <v>0.0840135132990844</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0216086232144815</v>
+        <v>0.0124193444609522</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0591104680879328</v>
+        <v>0.0545507521649979</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0733961287693268</v>
+        <v>0.0782341833001811</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0422180601878993</v>
+        <v>0.0511474502782875</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0612027081621936</v>
+        <v>0.0633000102990411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0762180393632447</v>
+        <v>0.00959385394321554</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0906048827829494</v>
+        <v>0.0751342664502928</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0909841452093766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0619962421998335</v>
+        <v>0.053824786501393</v>
       </c>
       <c r="C6" t="n">
         <v>0.0290186955742604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0300760131308032</v>
+        <v>0.026867765604085</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0283310762617526</v>
+        <v>0.0239764078190302</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0151941660966291</v>
+        <v>0.0186216392773957</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0199155679195448</v>
+        <v>0.0174803391250856</v>
       </c>
       <c r="H6" t="n">
-        <v>0.033734263865055</v>
+        <v>0.0330745275404564</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0467568037088846</v>
+        <v>0.0480990801201868</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00212658398172681</v>
+        <v>0.00213675213675214</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0256488583931481</v>
+        <v>0.0257559483287237</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00255472973049379</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.118208952652067</v>
+        <v>0.00293631843132826</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.115399459112481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0506337122652561</v>
+        <v>0.0478499843596344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0476507628573288</v>
+        <v>0.030125175036054</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0301452804787169</v>
+        <v>0.0315837299942148</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0968875179436569</v>
+        <v>0.0227949352075646</v>
       </c>
       <c r="F7" t="n">
-        <v>0.034362140750633</v>
+        <v>0.0577225405671472</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0229268300065674</v>
+        <v>0.043938804619219</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0096208123997868</v>
+        <v>0.0211421822764729</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0640776199003225</v>
+        <v>0.00882822907998769</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0258803621472979</v>
+        <v>0.075917564241827</v>
       </c>
       <c r="K7" t="n">
-        <v>0.130188718706752</v>
+        <v>0.0687578871062404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00355596338587784</v>
+        <v>0.0659371957429374</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0251841488498653</v>
+        <v>0.0572171595787723</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0498912488811969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0479143431989497</v>
+        <v>0.0460092508180482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0634007801908671</v>
+        <v>0.07792297807978</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0309651637779475</v>
+        <v>0.0274181119178741</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0786005310056482</v>
+        <v>0.0421103535441335</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0704851423329322</v>
+        <v>0.0876301578742441</v>
       </c>
       <c r="G8" t="n">
-        <v>0.103947965139622</v>
+        <v>0.283133970249215</v>
       </c>
       <c r="H8" t="n">
-        <v>0.059394851978482</v>
+        <v>0.0854148867831795</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0570031475120146</v>
+        <v>0.0486852179405294</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0235306123694665</v>
+        <v>0.0538921024347238</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0272690297284419</v>
+        <v>0.0276749297594272</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0638014306529636</v>
+        <v>0.0432855892805317</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0380766288598764</v>
+        <v>0.0256390128001224</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0189286486577429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.045627958133396</v>
+        <v>0.0443082548866275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07792297807978</v>
+        <v>0.0476507628573288</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0268645715502439</v>
+        <v>0.0289906577225283</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0434526921674371</v>
+        <v>0.0895547488752356</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0916930421870721</v>
+        <v>0.0348815622083712</v>
       </c>
       <c r="G9" t="n">
-        <v>0.267862513996017</v>
+        <v>0.0255766192994435</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0800191767272261</v>
+        <v>0.0116412087226114</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0507044742844207</v>
+        <v>0.0697710582049615</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0575598789176026</v>
+        <v>0.0214625625335806</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0273725771620396</v>
+        <v>0.128713677551674</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0261295031538891</v>
+        <v>0.00240385627704213</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0194153543426642</v>
+        <v>0.0018960413838049</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0253887028996433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0453119562758302</v>
+        <v>0.0431278001906455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0277259517247425</v>
+        <v>0.0634007801908671</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0151859891098755</v>
+        <v>0.0314739616159211</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0255599627865006</v>
+        <v>0.0844106977540657</v>
       </c>
       <c r="F10" t="n">
-        <v>0.039687730687306</v>
+        <v>0.0663197925315566</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0116196629584552</v>
+        <v>0.104730813963359</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0384408584931277</v>
+        <v>0.0614650823143722</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0377201535357959</v>
+        <v>0.0471843734988668</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0274564653918228</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0158734315784578</v>
+        <v>0.0271881437361025</v>
       </c>
       <c r="L10" t="n">
-        <v>0.127704049944619</v>
+        <v>0.0102864158820416</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0696452188474768</v>
+        <v>0.0535715797323764</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0386555714466946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0445373526276175</v>
+        <v>0.0417093410202582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.030125175036054</v>
+        <v>0.049937601741249</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0245978081599351</v>
+        <v>0.0662536766398815</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0222269780307662</v>
+        <v>0.0618859564171475</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0549596462498651</v>
+        <v>0.0341584655467827</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0516586385958521</v>
+        <v>0.0271950748790803</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0245982549272271</v>
+        <v>0.042444823752038</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00890219962558509</v>
+        <v>0.0444096175555878</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0712252622692084</v>
+        <v>0.0454628954112165</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0687944672278268</v>
+        <v>0.0808411361938612</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0591677438481413</v>
+        <v>0.0343755764345858</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0490933393851996</v>
+        <v>0.0357795731618311</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0178385153311117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0421228893937228</v>
+        <v>0.0411735522752835</v>
       </c>
       <c r="C12" t="n">
-        <v>0.049937601741249</v>
+        <v>0.0277259517247425</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0623442138723883</v>
+        <v>0.0122998804166516</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0669952705596341</v>
+        <v>0.0247560426134017</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0342044381325882</v>
+        <v>0.0428451554395636</v>
       </c>
       <c r="G12" t="n">
-        <v>0.030665209825048</v>
+        <v>0.0072664407900174</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0505870238264884</v>
+        <v>0.0378782931618529</v>
       </c>
       <c r="I12" t="n">
-        <v>0.042678727568861</v>
+        <v>0.0329498308919457</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0399023344796045</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0797804073033559</v>
+        <v>0.0158904031758384</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0481317671293459</v>
+        <v>0.0137566914553801</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0175358795450597</v>
+        <v>0.141964686531109</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0699880569921269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0391364656695975</v>
+        <v>0.034048899256291</v>
       </c>
       <c r="C13" t="n">
         <v>0.0349991381231839</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0288816215081848</v>
+        <v>0.0266225086229097</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0155098679957516</v>
+        <v>0.0166230323657412</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0232549732923744</v>
+        <v>0.0202753943706314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0251658321193361</v>
+        <v>0.0206593540446402</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0476259638631739</v>
+        <v>0.0514393747618081</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0767616417106224</v>
+        <v>0.0774398887286711</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00403286965024116</v>
+        <v>0.00435508390405681</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0247589274361114</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0593584630770354</v>
+        <v>0.0235552475156547</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0599601690431791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0373650528180406</v>
+        <v>0.033338991510504</v>
       </c>
       <c r="C14" t="n">
         <v>0.0119038161402332</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00530540832827688</v>
+        <v>0.00431485925509307</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206669280307826</v>
+        <v>0.0194590420200391</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0113461051604995</v>
+        <v>0.0130914070482627</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0128834143515531</v>
+        <v>0.0133849452932668</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00419658808051044</v>
+        <v>0.00528653334412038</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0155022441157482</v>
+        <v>0.0115243570729528</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00381898012035089</v>
+        <v>0.00363309988422034</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.00862066136058014</v>
       </c>
       <c r="M14" t="n">
-        <v>0.082291933301141</v>
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0811205064558061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0331351861147391</v>
+        <v>0.029956144169167</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00586544330556951</v>
+        <v>0.0339760748293429</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00530540832827688</v>
+        <v>0.0608742091486646</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0037446333648112</v>
+        <v>0.019994750987729</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.0301017990626682</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0128834143515531</v>
+        <v>0.0313928740620708</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.0381008707143524</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0155022441157482</v>
+        <v>0.0224588878836827</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.0341582067529839</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00381898012035089</v>
+        <v>0.0162096357114478</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0194386415866347</v>
       </c>
       <c r="M15" t="n">
-        <v>0.077940159055647</v>
+        <v>0.0391686909619266</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0345749044823296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0312611202878088</v>
+        <v>0.0288307819081881</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0200279362172733</v>
+        <v>0.00586544330556951</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0440775388548037</v>
+        <v>0.00431485925509307</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00790567096453879</v>
+        <v>0.00204448949162822</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0156976703099943</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0159244371890014</v>
+        <v>0.0133849452932668</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0197127180189418</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.018221574858354</v>
+        <v>0.0115243570729528</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00774697841926755</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.107450271480578</v>
+        <v>0.00363309988422034</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0297436825506307</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0123342323151233</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0769322386011206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0311641982183475</v>
+        <v>0.0275735037519242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0339760748293429</v>
+        <v>0.0200279362172733</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0619509943158485</v>
+        <v>0.0440572773487125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0244537517842389</v>
+        <v>0.00720938185275189</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0309917741015067</v>
+        <v>0.0176834028567555</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0307327433479539</v>
+        <v>0.0144207149722021</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0356955310415868</v>
+        <v>0.0226241810898711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0197305787245446</v>
+        <v>0.0118363562035056</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0355323429575242</v>
+        <v>0.00526262546855182</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0155874787624323</v>
+        <v>0.107971632644286</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0319446755385184</v>
+        <v>0.00317857840632282</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0344286020718885</v>
+        <v>0.031871538029425</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0130067429882325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0263131462854619</v>
+        <v>0.0232736401402419</v>
       </c>
       <c r="C18" t="n">
         <v>0.0336571706015466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0208544835102338</v>
+        <v>0.0196180228546457</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0555561698958782</v>
+        <v>0.0488953645769324</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00579366527481563</v>
+        <v>0.00590501906480029</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0377009157262638</v>
+        <v>0.036005597790544</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0232387215086755</v>
+        <v>0.0262177848764865</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0499667639674295</v>
+        <v>0.050623772963367</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0400242421982144</v>
+        <v>0.035594242190962</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0115599830885259</v>
+        <v>0.0107725238265774</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.00196991877156995</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0265937728093834</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0265841121715707</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0222284600244367</v>
+        <v>0.0226900040826463</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0216456218170576</v>
+        <v>0.0235055654704178</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00969645166190371</v>
+        <v>0.0516976406846892</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0597513434745232</v>
+        <v>0.0295169857299042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00523874305480695</v>
+        <v>0.0279649763867934</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00622559951700629</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0139333136821896</v>
+        <v>0.0157668542571122</v>
       </c>
       <c r="I19" t="n">
-        <v>0.017524980854726</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0192790514820798</v>
+        <v>0.0849333427452955</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0421843478195677</v>
+        <v>0.0298075418944167</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0257024075731143</v>
+        <v>0.0650493241400271</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0143526782931682</v>
+        <v>0.0138770233467847</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.00330348046851192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0188388991662444</v>
+        <v>0.0225267456506361</v>
       </c>
       <c r="C20" t="n">
         <v>0.0350327597058499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0158798522283001</v>
+        <v>0.0164692554815014</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0896244113725071</v>
+        <v>0.0771494141548875</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0124293275845552</v>
+        <v>0.0114040732969292</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0165894888663182</v>
+        <v>0.0125604501291385</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0468400480875788</v>
+        <v>0.0443814597712189</v>
       </c>
       <c r="J20" t="n">
-        <v>0.00858472916573635</v>
+        <v>0.00834231580403676</v>
       </c>
       <c r="K20" t="n">
-        <v>0.019360615212283</v>
+        <v>0.0188182537656743</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0449156782353273</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0024881506610577</v>
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.00267843971754879</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0187584489822044</v>
+        <v>0.0198446411443546</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0215040543671614</v>
+        <v>0.0216456218170576</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00984629986821635</v>
+        <v>0.00856032714388084</v>
       </c>
       <c r="E21" t="n">
-        <v>0.033146149430729</v>
+        <v>0.0645979133713865</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.00388988577775149</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0164686843104092</v>
+        <v>0.00479612546894758</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0587209350309289</v>
+        <v>0.0123894643001477</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0129844496625023</v>
+        <v>0.0192009399920312</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0246833831083949</v>
+        <v>0.0152993405923681</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0311905422809095</v>
+        <v>0.0417315653730756</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0038641564445351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0122384968467431</v>
+        <v>0.02473938886672</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.014412761084337</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0169036535993792</v>
+        <v>0.0166808756110727</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0235055654704178</v>
+        <v>0.0215040543671614</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0507759374580031</v>
+        <v>0.0106810319884891</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0265387473375826</v>
+        <v>0.0320416537720952</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0268448585599552</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0122446986601559</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0141001662419684</v>
+        <v>0.050437248548355</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.011807837977551</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0906619810649705</v>
+        <v>0.0293475948858927</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0309163433036238</v>
+        <v>0.0305130563329437</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0178588682154139</v>
+        <v>0.00288355139350003</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00381515163870278</v>
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0123836844867296</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0157977160937438</v>
+        <v>0.0141289407774994</v>
       </c>
       <c r="C23" t="n">
         <v>0.00573491193781725</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0152919405805075</v>
+        <v>0.0149006438590304</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00708451566913361</v>
+        <v>0.00828199200727449</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00748207765528707</v>
+        <v>0.00669975530523878</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1454,86 +1523,92 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0249950581182353</v>
+        <v>0.0282506686778186</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0119896261132361</v>
+        <v>0.0121467196524005</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.00287788890384716</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0297510821457222</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0300699190322272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0153255288311845</v>
+        <v>0.0137594813979521</v>
       </c>
       <c r="C24" t="n">
         <v>0.0140504970956598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0196255266373295</v>
+        <v>0.0223167776207404</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0125350778029131</v>
+        <v>0.0119105134040357</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0124539568178217</v>
+        <v>0.0095224817475476</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0247753445692695</v>
+        <v>0.0205172630087582</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0136170943322469</v>
+        <v>0.01241114268499</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0258297294708148</v>
+        <v>0.0259967636842263</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.00213424185990759</v>
       </c>
       <c r="M24" t="n">
-        <v>0.013712350308186</v>
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0141476913323937</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0134641855601056</v>
+        <v>0.0121080595357457</v>
       </c>
       <c r="C25" t="n">
         <v>0.0241430670877518</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00495234928229366</v>
+        <v>0.00596668020581748</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00427476041561637</v>
+        <v>0.00526599429197279</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0455429760373307</v>
+        <v>0.0455323877042295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0424179144720062</v>
+        <v>0.0409016906407935</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0580218202885479</v>
+        <v>0.063656250735419</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0159200869996144</v>
+        <v>0.0163580866747285</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1542,18 +1617,21 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0189322737656091</v>
+        <v>0.00196991877156995</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00683309766733521</v>
+        <v>0.0128061217109756</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.00736866276550537</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0114829529819277</v>
+        <v>0.0105451399863503</v>
       </c>
       <c r="C26" t="n">
         <v>0.0127193144738378</v>
@@ -1562,48 +1640,51 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00374626263272525</v>
+        <v>0.00484700273048831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0388864383348215</v>
+        <v>0.0415624452606743</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00821381829136636</v>
+        <v>0.00743799706068219</v>
       </c>
       <c r="H26" t="n">
-        <v>0.014303968646234</v>
+        <v>0.0132440267058467</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0142486128808038</v>
+        <v>0.0149743598944066</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0154757249054464</v>
+        <v>0.0157447548201095</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0135052014715671</v>
+        <v>0.0143240269213869</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0291968139265303</v>
+        <v>0.00423453947030015</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00777598585391502</v>
+        <v>0.0299836586713881</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.00682297668014977</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00833339070948276</v>
+        <v>0.00797030840541272</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00257371348367043</v>
+        <v>0.00175289976330107</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00524295428420706</v>
+        <v>0.004549540880546</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.00416978271202019</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1612,92 +1693,98 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0055191400622835</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00490243956766394</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.00601666560212942</v>
       </c>
       <c r="L27" t="n">
-        <v>0.110665284882157</v>
+        <v>0.0181093582127961</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00930293803942179</v>
+        <v>0.0132404002369692</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00957067071970235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00779480535138789</v>
+        <v>0.00752451249119957</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0110815049742139</v>
+        <v>0.00951275262822817</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00474190001962247</v>
+        <v>0.00536679498490362</v>
       </c>
       <c r="E28" t="n">
-        <v>0.026392089328939</v>
+        <v>0.00982082006127667</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.00586143048887332</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0160221572214873</v>
+        <v>0.0171059279989278</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.0063429009916464</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0160528444417205</v>
+        <v>0.0135279264479434</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0119031515713923</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0225104924514475</v>
+        <v>0.00583407521610505</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00123845229018401</v>
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0084188864525878</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00778328305073163</v>
+        <v>0.00722635775131924</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0163673684705738</v>
+        <v>0.00257371348367043</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00495234928229366</v>
+        <v>0.00540384631363467</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0274148519059667</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.036254408697979</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0391453581498994</v>
+        <v>0.00728287120159454</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0115640907300375</v>
+        <v>0.00578197227092371</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1706,39 +1793,42 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0107161422310778</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00132678815835527</v>
+        <v>0.109133482615508</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0088087758066895</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00755502812713248</v>
+        <v>0.00715790454792902</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00951275262822817</v>
+        <v>0.0163673684705738</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00454636476167684</v>
+        <v>0.00596668020581748</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0120231172080217</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00623980186032868</v>
+        <v>0.0295205578394002</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0211949009637864</v>
+        <v>0.0358827592349457</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00812631018797692</v>
+        <v>0.0460715259072039</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0101115592974845</v>
+        <v>0.0107886033218213</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1747,18 +1837,21 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.00196991877156995</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00916763552629266</v>
+        <v>0.00643262574791324</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.00138250141803462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00724246387673827</v>
+        <v>0.00712297166692243</v>
       </c>
       <c r="C31" t="n">
         <v>0.000255185322468236</v>
@@ -1782,109 +1875,118 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.010199149510776</v>
+        <v>0.00892262722574435</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0097158568354865</v>
+        <v>0.00986797986359189</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0144098703225577</v>
+        <v>0.00388236990497154</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0132687584320715</v>
+        <v>0.013644415561792</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0134386165018692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00623798846821182</v>
+        <v>0.00676941974912683</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00186892144538108</v>
+        <v>0.0110815049742139</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.00440558175277021</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.0242473303441789</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.011026348225604</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00775735594777737</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00464810240642566</v>
+        <v>0.0182548636512168</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0117780545441385</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0141306923176293</v>
+        <v>0.0219729990376026</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00104994724240295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0059885722578658</v>
+        <v>0.00591182986711993</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00175289976330107</v>
+        <v>0.0091331470548203</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00458296223727486</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00422177374914319</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.0114267842315319</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.0424204230731214</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.0097916740142376</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.00575727328574818</v>
+        <v>0.00223745955590126</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0148322303983302</v>
+        <v>0.00576943620544189</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00996850480533044</v>
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.00392936948929959</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0057624727721117</v>
+        <v>0.00542252731964719</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0091331470548203</v>
+        <v>0.00186892144538108</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1893,86 +1995,92 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0106936383795458</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0395373693148492</v>
+        <v>0.00580231133870516</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0118363254636422</v>
+        <v>0.00427545776933825</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00214646727694863</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00405062886539913</v>
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0140804251671078</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0038948710373</v>
+        <v>0.0040791265289788</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00522422825932702</v>
+        <v>0.00533224582077465</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0102133516077014</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.0086663361095855</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00647351768195018</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.01686379110996</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00787257774566695</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00612776985017955</v>
+        <v>0.00978651960790465</v>
       </c>
       <c r="J35" t="n">
-        <v>0.00679353865805877</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.00776595529768822</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.00578830344384133</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00117774519084184</v>
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00382325609106614</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00383751648593462</v>
+        <v>0.00353450144209879</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00288952552685915</v>
+        <v>0.00149596633134578</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00539260866103211</v>
+        <v>0.00652795716425034</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1981,80 +2089,86 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00662226489732693</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00469027189990375</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00387809662335824</v>
+        <v>0.00366875823239078</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00277706446788086</v>
+        <v>0.00268049305895737</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0049509177788378</v>
+        <v>0.003642591231753</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.00631067900725392</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00375290485924343</v>
+        <v>0.0033841129186559</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00533224582077465</v>
+        <v>0.00522422825932702</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.0118941372093421</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00905511557172728</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.00627981544148243</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0172934499934827</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.00653817472498335</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00893087575504395</v>
+        <v>0.00875457829704808</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.0118738023678834</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.00757525800300355</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00388873057547581</v>
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00123951354155133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00361643166395624</v>
+        <v>0.00336591686714716</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00149596633134578</v>
+        <v>0.00288952552685915</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00691885219765676</v>
+        <v>0.00376891312221157</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2063,30 +2177,33 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.00678732648999885</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.00527325945560711</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.00368289324304311</v>
+        <v>0.00391393049829596</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00280094641516328</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00598341660493956</v>
+        <v>0.00368054324343952</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.005045598301879</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00250664991129976</v>
+        <v>0.00217496567344842</v>
       </c>
       <c r="C39" t="n">
         <v>0.00411294224336197</v>
@@ -2098,36 +2215,39 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00745550323149491</v>
+        <v>0.00627353066797346</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0130034869796216</v>
+        <v>0.0157101017693806</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00550992358143652</v>
+        <v>0.00431618764077793</v>
       </c>
       <c r="J39" t="n">
-        <v>0.00769428945273609</v>
+        <v>0.00846014062810207</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0232399695603444</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>0.0189288240258836</v>
+      </c>
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00240104197681679</v>
+        <v>0.00210706849549688</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2154,21 +2274,24 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00381898012035089</v>
+        <v>0.00363309988422034</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.004655091897656</v>
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.00429534619912795</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00217969768438275</v>
+        <v>0.0018908787453378</v>
       </c>
       <c r="C41" t="n">
         <v>0.00205827015744949</v>
@@ -2186,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0096208123997868</v>
+        <v>0.0116412087226114</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00430094500237565</v>
+        <v>0.00345113427257512</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2198,18 +2321,21 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00170395528538604</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0032510850655606</v>
+        <v>0.00103305785123967</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.00321393537955232</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00180228794289333</v>
+        <v>0.00156245323437655</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -2236,21 +2362,24 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.00203821838352712</v>
+        <v>0.00209801450903693</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00383533601319998</v>
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.00363501937306174</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00162603354671784</v>
+        <v>0.00140887487922457</v>
       </c>
       <c r="C43" t="n">
         <v>0.000795072169291958</v>
@@ -2259,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00367721298971527</v>
+        <v>0.00279283011576853</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2277,21 +2406,24 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00203821838352712</v>
+        <v>0.00209801450903693</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00250664270761351</v>
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00241522168424337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00123372636089329</v>
+        <v>0.0010727644645755</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2318,24 +2450,27 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00398245692238091</v>
+        <v>0.0040373976061734</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0018422091997143</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.00140215584387808</v>
+        <v>0.00103305785123967</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.00149580472075144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000344281692927438</v>
+        <v>0.000711737897714193</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000814606323433144</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2353,30 +2488,33 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.00459303700406085</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.00167586039797088</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.00354437053365932</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.000318500948510932</v>
+        <v>0.00029872574576065</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.000814606323433145</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2394,27 +2532,30 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.00596644218060289</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00200630766591475</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>0.000317080351623966</v>
+        <v>0.000275396711600754</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -2441,21 +2582,24 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.00199735901305258</v>
+        <v>0.00199141367382456</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000287735896443049</v>
+        <v>0.000273227795026024</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2482,12 +2626,15 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.00181251182293646</v>
+        <v>0.00174017267376243</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/country_comparison/field_injustice_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_injustice_keyword_positive.xlsx
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115031317095886</v>
+        <v>0.115069208140871</v>
       </c>
       <c r="C2" t="n">
         <v>0.118097517677437</v>
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.112780309479869</v>
+        <v>0.112730944051826</v>
       </c>
       <c r="C3" t="n">
         <v>0.183436187298691</v>
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0897405322193978</v>
+        <v>0.0897153294494856</v>
       </c>
       <c r="C4" t="n">
         <v>0.0865269471618031</v>
@@ -707,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0624455709260839</v>
+        <v>0.0624026010181231</v>
       </c>
       <c r="C5" t="n">
         <v>0.0561722807795944</v>
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.053824786501393</v>
+        <v>0.0537788177388945</v>
       </c>
       <c r="C6" t="n">
         <v>0.0290186955742604</v>
@@ -795,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0478499843596344</v>
+        <v>0.0479089815438515</v>
       </c>
       <c r="C7" t="n">
         <v>0.030125175036054</v>
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0460092508180482</v>
+        <v>0.0460450120242931</v>
       </c>
       <c r="C8" t="n">
         <v>0.07792297807978</v>
@@ -883,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0443082548866275</v>
+        <v>0.0442738343593158</v>
       </c>
       <c r="C9" t="n">
         <v>0.0476507628573288</v>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0431278001906455</v>
+        <v>0.0431022367507713</v>
       </c>
       <c r="C10" t="n">
         <v>0.0634007801908671</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0417093410202582</v>
+        <v>0.0417338045668501</v>
       </c>
       <c r="C11" t="n">
         <v>0.049937601741249</v>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0411735522752835</v>
+        <v>0.0411640840264375</v>
       </c>
       <c r="C12" t="n">
         <v>0.0277259517247425</v>
@@ -1059,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.034048899256291</v>
+        <v>0.0340198199813884</v>
       </c>
       <c r="C13" t="n">
         <v>0.0349991381231839</v>
@@ -1103,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.033338991510504</v>
+        <v>0.0333033048328706</v>
       </c>
       <c r="C14" t="n">
         <v>0.0119038161402332</v>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029956144169167</v>
+        <v>0.0299468407777485</v>
       </c>
       <c r="C15" t="n">
         <v>0.0339760748293429</v>
@@ -1191,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0288307819081881</v>
+        <v>0.0288061591376704</v>
       </c>
       <c r="C16" t="n">
         <v>0.00586544330556951</v>
@@ -1235,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0275735037519242</v>
+        <v>0.0275516480664247</v>
       </c>
       <c r="C17" t="n">
         <v>0.0200279362172733</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0232736401402419</v>
+        <v>0.0232628162281725</v>
       </c>
       <c r="C18" t="n">
         <v>0.0336571706015466</v>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0226900040826463</v>
+        <v>0.0227568195874324</v>
       </c>
       <c r="C19" t="n">
         <v>0.0235055654704178</v>
@@ -1367,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0225267456506361</v>
+        <v>0.0225302254963411</v>
       </c>
       <c r="C20" t="n">
         <v>0.0350327597058499</v>
@@ -1411,7 +1411,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0198446411443546</v>
+        <v>0.0198259337914712</v>
       </c>
       <c r="C21" t="n">
         <v>0.0216456218170576</v>
@@ -1455,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0166808756110727</v>
+        <v>0.0166683597327701</v>
       </c>
       <c r="C22" t="n">
         <v>0.0215040543671614</v>
@@ -1499,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0141289407774994</v>
+        <v>0.0141190898485512</v>
       </c>
       <c r="C23" t="n">
         <v>0.00573491193781725</v>
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0137594813979521</v>
+        <v>0.0137587776837876</v>
       </c>
       <c r="C24" t="n">
         <v>0.0140504970956598</v>
@@ -1587,7 +1587,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0121080595357457</v>
+        <v>0.0121067715263028</v>
       </c>
       <c r="C25" t="n">
         <v>0.0241430670877518</v>
@@ -1631,7 +1631,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0105451399863503</v>
+        <v>0.0105377709574334</v>
       </c>
       <c r="C26" t="n">
         <v>0.0127193144738378</v>
@@ -1675,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00797030840541272</v>
+        <v>0.00796512515952818</v>
       </c>
       <c r="C27" t="n">
         <v>0.00175289976330107</v>
@@ -1719,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00752451249119957</v>
+        <v>0.00752537988846998</v>
       </c>
       <c r="C28" t="n">
         <v>0.00951275262822817</v>
@@ -1763,7 +1763,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00722635775131924</v>
+        <v>0.00722018612027727</v>
       </c>
       <c r="C29" t="n">
         <v>0.00257371348367043</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00715790454792902</v>
+        <v>0.00716084419109294</v>
       </c>
       <c r="C30" t="n">
         <v>0.0163673684705738</v>
@@ -1851,7 +1851,7 @@
         <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00712297166692243</v>
+        <v>0.00712850151951196</v>
       </c>
       <c r="C31" t="n">
         <v>0.000255185322468236</v>
@@ -1895,7 +1895,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00676941974912683</v>
+        <v>0.00676363836346926</v>
       </c>
       <c r="C32" t="n">
         <v>0.0110815049742139</v>
@@ -1939,7 +1939,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00591182986711993</v>
+        <v>0.0059060392205883</v>
       </c>
       <c r="C33" t="n">
         <v>0.0091331470548203</v>
@@ -1983,7 +1983,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00542252731964719</v>
+        <v>0.00541789624005169</v>
       </c>
       <c r="C34" t="n">
         <v>0.00186892144538108</v>
@@ -2027,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0040791265289788</v>
+        <v>0.00408563172914073</v>
       </c>
       <c r="C35" t="n">
         <v>0.00533224582077465</v>
@@ -2071,7 +2071,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00353450144209879</v>
+        <v>0.00354240665444254</v>
       </c>
       <c r="C36" t="n">
         <v>0.00149596633134578</v>
@@ -2115,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0033841129186559</v>
+        <v>0.00338122273565403</v>
       </c>
       <c r="C37" t="n">
         <v>0.00522422825932702</v>
@@ -2159,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00336591686714716</v>
+        <v>0.00336304222438287</v>
       </c>
       <c r="C38" t="n">
         <v>0.00288952552685915</v>
@@ -2203,7 +2203,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00217496567344842</v>
+        <v>0.00217310815599254</v>
       </c>
       <c r="C39" t="n">
         <v>0.00411294224336197</v>
@@ -2247,7 +2247,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00210706849549688</v>
+        <v>0.00210526896525192</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0018908787453378</v>
+        <v>0.00188926385075841</v>
       </c>
       <c r="C41" t="n">
         <v>0.00205827015744949</v>
@@ -2335,7 +2335,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00156245323437655</v>
+        <v>0.00156111882979616</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00140887487922457</v>
+        <v>0.00140767163739264</v>
       </c>
       <c r="C43" t="n">
         <v>0.000795072169291958</v>
@@ -2423,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0010727644645755</v>
+        <v>0.00107184827599224</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000711737897714193</v>
+        <v>0.000721942993539783</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2511,10 +2511,10 @@
         <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00029872574576065</v>
+        <v>0.000298470620682565</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000814606323433145</v>
+        <v>0.000814606323433144</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>0.000275396711600754</v>
+        <v>0.000275161510555821</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000273227795026024</v>
+        <v>0.000272994446332347</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
